--- a/Korean_Codes/DGSBJT_CD.xlsx
+++ b/Korean_Codes/DGSBJT_CD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Korea/opendata4covid19/Korean_Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED02F20-66D0-B04F-8AD5-1325D7DEF324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FB66F-8929-AF4F-A033-8A98EC14D806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="5620" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="2060" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DGRSLT_TP_CD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>General</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Ophthalmology</t>
   </si>
   <si>
-    <t>Otolaryngology Department</t>
-  </si>
-  <si>
     <t>Dermatology</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>Dental Orthodontics</t>
   </si>
   <si>
-    <t>Pediatric Dentistry Department</t>
-  </si>
-  <si>
-    <t>Dental</t>
-  </si>
-  <si>
     <t>Dental Preservation</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>Oral Pathology</t>
   </si>
   <si>
-    <t>Yes Orthodontics</t>
-  </si>
-  <si>
     <t>Oriental Internal Medicine</t>
   </si>
   <si>
@@ -158,18 +146,12 @@
     <t>Oriental Medicine Otorhinolaryngology Dermatology</t>
   </si>
   <si>
-    <t>One Department of Psychiatry</t>
-  </si>
-  <si>
     <t>Acupuncture Department</t>
   </si>
   <si>
     <t>Oriental Rehabilitation Medicine</t>
   </si>
   <si>
-    <t>Thought Constitution Department</t>
-  </si>
-  <si>
     <t>Oriental Emergency</t>
   </si>
   <si>
@@ -216,6 +198,75 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>OrientalPsychiatry</t>
+  </si>
+  <si>
+    <t>Otolaryngology</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Herbal</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Health Intitution Dentistry</t>
+  </si>
+  <si>
+    <t>Health Institution Oriental Medicine</t>
+  </si>
+  <si>
+    <t>Health Institution Department</t>
+  </si>
+  <si>
+    <t>Pediatric Dentistry</t>
+  </si>
+  <si>
+    <t>Periodontal</t>
+  </si>
+  <si>
+    <t>Prevantive Dentistry</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Dental Office</t>
+  </si>
+  <si>
+    <t>Integrated Dentistry</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Sasang Constitution</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,15 +1130,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1095,7 +1146,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1103,7 +1154,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1111,7 +1162,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1119,7 +1170,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1127,7 +1178,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1135,7 +1186,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1143,7 +1194,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1151,7 +1202,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1159,7 +1210,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1194,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,199 +1349,271 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>50</v>
+      <c r="A30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>51</v>
+      <c r="A31" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>52</v>
+      <c r="A32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>53</v>
+      <c r="A33" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>54</v>
+      <c r="A34" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>55</v>
+      <c r="A35" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>87</v>
+      <c r="A47" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>88</v>
+      <c r="A48" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
